--- a/Projects/GSKAU_SAND/Data/gsk_set_up_old.xlsx
+++ b/Projects/GSKAU_SAND/Data/gsk_set_up_old.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral ,Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -87,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +121,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,7 +294,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -325,21 +312,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
@@ -390,7 +377,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -410,9 +397,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -428,7 +413,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -446,14 +431,12 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
